--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/MISSOURI_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/MISSOURI_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D905"/>
+  <dimension ref="A1:D899"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C9">
@@ -535,7 +535,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C13">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C27">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C29">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C43">
@@ -992,7 +992,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C47">
@@ -1335,7 +1335,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C73">
@@ -1374,7 +1374,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C76">
@@ -1530,7 +1530,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C88">
@@ -1743,7 +1743,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C104">
@@ -1917,7 +1917,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1974,7 +1974,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C121">
@@ -2369,7 +2369,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C151">
@@ -2447,12 +2447,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C157">
@@ -2491,7 +2491,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C160">
@@ -2504,7 +2504,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C161">
@@ -2608,7 +2608,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C169">
@@ -2673,7 +2673,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C174">
@@ -2712,7 +2712,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C177">
@@ -2803,7 +2803,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C184">
@@ -2881,7 +2881,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C190">
@@ -2998,7 +2998,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C199">
@@ -3050,7 +3050,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C203">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C207">
@@ -3211,7 +3211,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C215">
@@ -3224,7 +3224,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C216">
@@ -3302,7 +3302,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C222">
@@ -3471,7 +3471,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C235">
@@ -3497,7 +3497,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C237">
@@ -3523,7 +3523,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C239">
@@ -3549,7 +3549,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C241">
@@ -3562,7 +3562,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C242">
@@ -3614,7 +3614,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C246">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C251">
@@ -3710,7 +3710,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C253">
@@ -3723,7 +3723,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C254">
@@ -3775,7 +3775,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C258">
@@ -3788,7 +3788,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C259">
@@ -3801,7 +3801,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C260">
@@ -3827,7 +3827,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C262">
@@ -3840,7 +3840,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C263">
@@ -3853,7 +3853,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C264">
@@ -3905,7 +3905,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C268">
@@ -3918,7 +3918,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C269">
@@ -3944,7 +3944,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C271">
@@ -3957,7 +3957,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C272">
@@ -4022,7 +4022,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C277">
@@ -4035,7 +4035,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C278">
@@ -4048,7 +4048,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C279">
@@ -4074,7 +4074,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C281">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C293">
@@ -4256,7 +4256,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C295">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C297">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C299">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C302">
@@ -4443,7 +4443,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C309">
@@ -4456,7 +4456,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C310">
@@ -4482,7 +4482,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C312">
@@ -4508,7 +4508,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C314">
@@ -4560,7 +4560,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C318">
@@ -4612,7 +4612,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C322">
@@ -4625,7 +4625,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C323">
@@ -4638,7 +4638,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C324">
@@ -4651,7 +4651,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C325">
@@ -4664,7 +4664,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C326">
@@ -4690,7 +4690,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C328">
@@ -4742,7 +4742,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C332">
@@ -4755,7 +4755,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C333">
@@ -4781,7 +4781,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C335">
@@ -4794,7 +4794,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C336">
@@ -4807,7 +4807,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C337">
@@ -4820,7 +4820,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C338">
@@ -4911,7 +4911,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C345">
@@ -4924,7 +4924,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C346">
@@ -4950,7 +4950,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C348">
@@ -5007,7 +5007,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C352">
@@ -5111,7 +5111,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C360">
@@ -5189,7 +5189,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C366">
@@ -5254,7 +5254,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C371">
@@ -5293,7 +5293,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C374">
@@ -5319,7 +5319,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C376">
@@ -5345,7 +5345,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C378">
@@ -5371,7 +5371,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C380">
@@ -5423,7 +5423,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C384">
@@ -5449,7 +5449,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C386">
@@ -5540,7 +5540,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C393">
@@ -5553,7 +5553,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C394">
@@ -5605,7 +5605,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C398">
@@ -5631,7 +5631,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C400">
@@ -5883,7 +5883,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C419">
@@ -6481,7 +6481,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C465">
@@ -6798,7 +6798,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C489">
@@ -6863,7 +6863,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C494">
@@ -6915,7 +6915,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C498">
@@ -6959,7 +6959,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C501">
@@ -7146,7 +7146,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C515">
@@ -7198,7 +7198,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C519">
@@ -7255,7 +7255,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C523">
@@ -7268,7 +7268,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C524">
@@ -7294,7 +7294,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C526">
@@ -7307,7 +7307,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C527">
@@ -7320,7 +7320,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C528">
@@ -7333,7 +7333,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C529">
@@ -7398,7 +7398,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C534">
@@ -7424,7 +7424,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C536">
@@ -7463,7 +7463,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C539">
@@ -7476,7 +7476,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C540">
@@ -7489,7 +7489,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C541">
@@ -7502,7 +7502,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C542">
@@ -7541,7 +7541,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C545">
@@ -7671,7 +7671,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C555">
@@ -7892,7 +7892,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C572">
@@ -7905,7 +7905,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C573">
@@ -8230,7 +8230,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C598">
@@ -8295,7 +8295,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C603">
@@ -8308,7 +8308,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C604">
@@ -8321,7 +8321,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C605">
@@ -8334,7 +8334,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C606">
@@ -8347,7 +8347,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C607">
@@ -8360,7 +8360,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C608">
@@ -8373,7 +8373,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C609">
@@ -8456,7 +8456,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C615">
@@ -8560,7 +8560,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C623">
@@ -8638,7 +8638,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C629">
@@ -8703,7 +8703,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C634">
@@ -8781,7 +8781,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C640">
@@ -8794,7 +8794,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C641">
@@ -8833,7 +8833,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C644">
@@ -8911,7 +8911,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C650">
@@ -8924,7 +8924,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C651">
@@ -8950,7 +8950,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C653">
@@ -9059,7 +9059,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C661">
@@ -9085,7 +9085,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C663">
@@ -9137,7 +9137,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C667">
@@ -9163,7 +9163,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C669">
@@ -9189,7 +9189,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C671">
@@ -9368,7 +9368,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C684">
@@ -9446,7 +9446,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C690">
@@ -9511,7 +9511,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C695">
@@ -9615,7 +9615,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C703">
@@ -9628,7 +9628,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C704">
@@ -9641,7 +9641,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C705">
@@ -9950,7 +9950,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C728">
@@ -10433,7 +10433,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C764">
@@ -10446,7 +10446,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C765">
@@ -10511,7 +10511,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C770">
@@ -10537,7 +10537,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C772">
@@ -10576,7 +10576,7 @@
     <row r="775">
       <c r="B775" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C775">
@@ -10602,7 +10602,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C777">
@@ -10815,7 +10815,7 @@
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C793">
@@ -10880,7 +10880,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C798">
@@ -10984,7 +10984,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C806">
@@ -11088,7 +11088,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C814">
@@ -11205,7 +11205,7 @@
     <row r="823">
       <c r="B823" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C823">
@@ -11231,7 +11231,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C825">
@@ -11257,7 +11257,7 @@
     <row r="827">
       <c r="B827" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C827">
@@ -11322,7 +11322,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C832">
@@ -11374,7 +11374,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C836">
@@ -11439,7 +11439,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C841">
@@ -11647,7 +11647,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C857">
@@ -11826,7 +11826,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C870">
@@ -12021,7 +12021,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C885">
@@ -12112,7 +12112,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C892">
@@ -12138,7 +12138,7 @@
     <row r="894">
       <c r="B894" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C894">
@@ -12211,41 +12211,6 @@
       </c>
       <c r="D899">
         <v>1</v>
-      </c>
-    </row>
-    <row r="901">
-      <c r="A901" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="902">
-      <c r="A902" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="903">
-      <c r="A903" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="904">
-      <c r="A904" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="905">
-      <c r="A905" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
       </c>
     </row>
   </sheetData>
